--- a/5. Evaluation/port_data_hist.xlsx
+++ b/5. Evaluation/port_data_hist.xlsx
@@ -52,13 +52,13 @@
     <t>value</t>
   </si>
   <si>
-    <t>УРАЛСИБ - Энергетическая перспектива</t>
-  </si>
-  <si>
-    <t>УРАЛСИБ</t>
-  </si>
-  <si>
-    <t>Энергетическая перспектива</t>
+    <t>Управление Сбережениями - Золото</t>
+  </si>
+  <si>
+    <t>Управление Сбережениями</t>
+  </si>
+  <si>
+    <t>Золото</t>
   </si>
 </sst>
 </file>
@@ -475,13 +475,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>40544</v>
+        <v>42369</v>
       </c>
       <c r="E2">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -490,19 +490,19 @@
         <v>14</v>
       </c>
       <c r="I2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J2">
-        <v>32181.54</v>
+        <v>1722.51</v>
       </c>
       <c r="K2">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L2">
         <v>0.005</v>
       </c>
       <c r="M2">
-        <v>948358.8054752519</v>
+        <v>1065260.944547439</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -516,13 +516,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>40575</v>
+        <v>42401</v>
       </c>
       <c r="E3">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -531,19 +531,19 @@
         <v>14</v>
       </c>
       <c r="I3">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J3">
-        <v>32203.41</v>
+        <v>1882.34</v>
       </c>
       <c r="K3">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L3">
         <v>0.005</v>
       </c>
       <c r="M3">
-        <v>949003.2931870191</v>
+        <v>1164105.454458567</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -557,13 +557,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>40603</v>
+        <v>42430</v>
       </c>
       <c r="E4">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F4">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -572,19 +572,19 @@
         <v>14</v>
       </c>
       <c r="I4">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J4">
-        <v>30370.44</v>
+        <v>2051.84</v>
       </c>
       <c r="K4">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L4">
         <v>0.005</v>
       </c>
       <c r="M4">
-        <v>894987.4431167</v>
+        <v>1268930.233473372</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -598,13 +598,13 @@
         <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>40634</v>
+        <v>42461</v>
       </c>
       <c r="E5">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F5">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -613,19 +613,19 @@
         <v>14</v>
       </c>
       <c r="I5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J5">
-        <v>29858.97</v>
+        <v>1829.06</v>
       </c>
       <c r="K5">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L5">
         <v>0.005</v>
       </c>
       <c r="M5">
-        <v>879914.9177423263</v>
+        <v>1131155.223037276</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -639,13 +639,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>40662</v>
+        <v>42489</v>
       </c>
       <c r="E6">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F6">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -654,19 +654,19 @@
         <v>14</v>
       </c>
       <c r="I6">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J6">
-        <v>26622.82</v>
+        <v>1852.45</v>
       </c>
       <c r="K6">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L6">
         <v>0.005</v>
       </c>
       <c r="M6">
-        <v>784548.7125098004</v>
+        <v>1145620.424106045</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -680,13 +680,13 @@
         <v>13</v>
       </c>
       <c r="D7" s="2">
-        <v>40695</v>
+        <v>42522</v>
       </c>
       <c r="E7">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F7">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -695,19 +695,19 @@
         <v>14</v>
       </c>
       <c r="I7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J7">
-        <v>24995.1</v>
+        <v>1754.88</v>
       </c>
       <c r="K7">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L7">
         <v>0.005</v>
       </c>
       <c r="M7">
-        <v>736581.381087868</v>
+        <v>1085279.694380532</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -721,13 +721,13 @@
         <v>13</v>
       </c>
       <c r="D8" s="2">
-        <v>40725</v>
+        <v>42552</v>
       </c>
       <c r="E8">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F8">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -736,19 +736,19 @@
         <v>14</v>
       </c>
       <c r="I8">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J8">
-        <v>24964.27</v>
+        <v>1854.56</v>
       </c>
       <c r="K8">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L8">
         <v>0.005</v>
       </c>
       <c r="M8">
-        <v>735672.8508567852</v>
+        <v>1146925.322535079</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -762,13 +762,13 @@
         <v>13</v>
       </c>
       <c r="D9" s="2">
-        <v>40756</v>
+        <v>42583</v>
       </c>
       <c r="E9">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F9">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -777,19 +777,19 @@
         <v>14</v>
       </c>
       <c r="I9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J9">
-        <v>26011.91</v>
+        <v>1932.76</v>
       </c>
       <c r="K9">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L9">
         <v>0.005</v>
       </c>
       <c r="M9">
-        <v>766545.7866755214</v>
+        <v>1195286.960995006</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -803,13 +803,13 @@
         <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>40787</v>
+        <v>42614</v>
       </c>
       <c r="E10">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -818,19 +818,19 @@
         <v>14</v>
       </c>
       <c r="I10">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J10">
-        <v>22028.27</v>
+        <v>1816.64</v>
       </c>
       <c r="K10">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L10">
         <v>0.005</v>
       </c>
       <c r="M10">
-        <v>649151.7753310229</v>
+        <v>1123474.256928935</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -844,13 +844,13 @@
         <v>13</v>
       </c>
       <c r="D11" s="2">
-        <v>40816</v>
+        <v>42643</v>
       </c>
       <c r="E11">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F11">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -859,19 +859,19 @@
         <v>14</v>
       </c>
       <c r="I11">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J11">
-        <v>18725.76</v>
+        <v>1758.75</v>
       </c>
       <c r="K11">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L11">
         <v>0.005</v>
       </c>
       <c r="M11">
-        <v>551830.0051898154</v>
+        <v>1087673.038892551</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -885,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="D12" s="2">
-        <v>40848</v>
+        <v>42675</v>
       </c>
       <c r="E12">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -900,19 +900,19 @@
         <v>14</v>
       </c>
       <c r="I12">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J12">
-        <v>20321.54</v>
+        <v>1715.44</v>
       </c>
       <c r="K12">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L12">
         <v>0.005</v>
       </c>
       <c r="M12">
-        <v>598856.0957560623</v>
+        <v>1060888.607157264</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -926,13 +926,13 @@
         <v>13</v>
       </c>
       <c r="D13" s="2">
-        <v>40878</v>
+        <v>42705</v>
       </c>
       <c r="E13">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F13">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -941,19 +941,19 @@
         <v>14</v>
       </c>
       <c r="I13">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J13">
-        <v>21852.82</v>
+        <v>1601.11</v>
       </c>
       <c r="K13">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L13">
         <v>0.005</v>
       </c>
       <c r="M13">
-        <v>643981.4338116103</v>
+        <v>990182.902232411</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -967,13 +967,13 @@
         <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>40909</v>
+        <v>42734</v>
       </c>
       <c r="E14">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -982,19 +982,19 @@
         <v>14</v>
       </c>
       <c r="I14">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J14">
-        <v>18163.45</v>
+        <v>1450.06</v>
       </c>
       <c r="K14">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L14">
         <v>0.005</v>
       </c>
       <c r="M14">
-        <v>535259.2742705746</v>
+        <v>896768.2540307223</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1008,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="D15" s="2">
-        <v>40940</v>
+        <v>42767</v>
       </c>
       <c r="E15">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F15">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1023,19 +1023,19 @@
         <v>14</v>
       </c>
       <c r="I15">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J15">
-        <v>20893.21</v>
+        <v>1526.36</v>
       </c>
       <c r="K15">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L15">
         <v>0.005</v>
       </c>
       <c r="M15">
-        <v>615702.6568070884</v>
+        <v>943954.865469245</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1049,13 +1049,13 @@
         <v>13</v>
       </c>
       <c r="D16" s="2">
-        <v>40969</v>
+        <v>42795</v>
       </c>
       <c r="E16">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F16">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1064,19 +1064,19 @@
         <v>14</v>
       </c>
       <c r="I16">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J16">
-        <v>21513.09</v>
+        <v>1515.52</v>
       </c>
       <c r="K16">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L16">
         <v>0.005</v>
       </c>
       <c r="M16">
-        <v>633969.9198509949</v>
+        <v>937251.0270944929</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1090,13 +1090,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="2">
-        <v>40998</v>
+        <v>42825</v>
       </c>
       <c r="E17">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F17">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1105,19 +1105,19 @@
         <v>14</v>
       </c>
       <c r="I17">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J17">
-        <v>21645.25</v>
+        <v>1467.3</v>
       </c>
       <c r="K17">
-        <v>30.3804445088915</v>
+        <v>624.6820953773995</v>
       </c>
       <c r="L17">
         <v>0.005</v>
       </c>
       <c r="M17">
-        <v>637864.5470109012</v>
+        <v>907430.0781617856</v>
       </c>
     </row>
   </sheetData>
